--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_23.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>949685.0803883821</v>
+        <v>1005492.911668199</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484447</v>
+        <v>492028.9342484449</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7238433.033084397</v>
+        <v>7244746.164852859</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>320.0331481255876</v>
+        <v>327.5751691364004</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -668,13 +668,13 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
@@ -817,7 +817,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -829,7 +829,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>11.70684589621514</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>166.6361964984596</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -896,22 +896,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>326.8753561036519</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>50.79226062610575</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1054,13 +1054,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>18.77928963514309</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>347.6160279099795</v>
       </c>
       <c r="D8" t="n">
-        <v>57.6381591799397</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.304015547406072</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1306,7 +1306,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>103.8284742946035</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>91.3922693100219</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1436,7 +1436,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>136.1921297287216</v>
       </c>
     </row>
     <row r="12">
@@ -1537,16 +1537,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>90.30617524481262</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225706</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1613,7 +1613,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>379.7050409934889</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>206.4855017772231</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1771,7 +1771,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>56.63677140718762</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,10 +1819,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>123.2901323038664</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1844,7 +1844,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>165.7499153537892</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>71.84692347866424</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225728</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2059,7 +2059,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>122.1591039832979</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2068,7 +2068,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>154.0254420454365</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2096,7 +2096,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>18.22772027659386</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2144,7 +2144,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864815</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2245,7 +2245,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>203.2613507217563</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>172.6623007436918</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2485,16 +2485,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>63.5163311932788</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225831</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2722,13 +2722,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>14.14416275345384</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2773,10 +2773,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>234.1486472602374</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225785</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>152.5168019860618</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3199,13 +3199,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7884964950068</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225785</v>
+        <v>18.05677735225694</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3667,7 +3667,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>7.264602967362823</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3676,10 +3676,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3721,13 +3721,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>128.5829343862778</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884123</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3916,7 +3916,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,13 +3949,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>5.990622819018972</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3964,7 +3964,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>102.6974459740359</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -4135,7 +4135,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4144,7 +4144,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
@@ -4153,7 +4153,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>140.8432614602422</v>
+        <v>57.17380082342413</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>442.640221925911</v>
+        <v>1158.592599512902</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>827.708590284215</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>795.8392094990636</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>766.1048686977629</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>338.2374391069706</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>338.2374391069706</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018683</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018683</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>484.3619720031047</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>484.3619720031047</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>484.3619720031047</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>524.306084180566</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>524.306084180566</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1132.008730489128</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.71137679769</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756284</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509341</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693178</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693178</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693178</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2009.095403627005</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>2008.280353078442</v>
       </c>
       <c r="X2" t="n">
-        <v>873.1855120707613</v>
+        <v>1589.137889657753</v>
       </c>
       <c r="Y2" t="n">
-        <v>868.9397924108188</v>
+        <v>1584.89216999781</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414796</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781219</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246752</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516289</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677905</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397435</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018683</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064443</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="K3" t="n">
-        <v>739.9048540962709</v>
+        <v>1007.431928985419</v>
       </c>
       <c r="L3" t="n">
-        <v>739.9048540962709</v>
+        <v>1007.431928985419</v>
       </c>
       <c r="M3" t="n">
-        <v>739.9048540962709</v>
+        <v>1007.431928985419</v>
       </c>
       <c r="N3" t="n">
-        <v>739.9048540962709</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.068709842022</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212428</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>774.8488427225424</v>
+        <v>1128.165445162068</v>
       </c>
       <c r="C4" t="n">
-        <v>774.8488427225424</v>
+        <v>955.6037336452931</v>
       </c>
       <c r="D4" t="n">
-        <v>608.9708499240651</v>
+        <v>789.7257408468158</v>
       </c>
       <c r="E4" t="n">
-        <v>439.2128461748023</v>
+        <v>619.9677370975531</v>
       </c>
       <c r="F4" t="n">
-        <v>262.5057921365585</v>
+        <v>443.2606830593093</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>277.669408085137</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>137.7672337755115</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018683</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018683</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>323.8657391213224</v>
       </c>
       <c r="L4" t="n">
-        <v>341.7616130750586</v>
+        <v>742.0756208892834</v>
       </c>
       <c r="M4" t="n">
-        <v>341.7616130750586</v>
+        <v>1201.559488070196</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1643.818291227841</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1939.664558674667</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2287.171452645009</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509341</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2433.946406214713</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2274.70503751271</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>2274.70503751271</v>
       </c>
       <c r="U4" t="n">
-        <v>1451.303983658873</v>
+        <v>2274.70503751271</v>
       </c>
       <c r="V4" t="n">
-        <v>1439.478886794009</v>
+        <v>1987.74952938314</v>
       </c>
       <c r="W4" t="n">
-        <v>1439.478886794009</v>
+        <v>1715.723124969432</v>
       </c>
       <c r="X4" t="n">
-        <v>1194.087132127421</v>
+        <v>1547.403734566947</v>
       </c>
       <c r="Y4" t="n">
-        <v>966.6674614415294</v>
+        <v>1319.984063881055</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>846.6806259663152</v>
+        <v>1298.040072665448</v>
       </c>
       <c r="C5" t="n">
-        <v>516.503498588889</v>
+        <v>859.8975998488718</v>
       </c>
       <c r="D5" t="n">
-        <v>87.92182432615731</v>
+        <v>423.9878150233163</v>
       </c>
       <c r="E5" t="n">
-        <v>58.18748352485655</v>
+        <v>394.2534742220155</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1294.102365436318</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1743.687422190584</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111166</v>
+        <v>1728.585362810299</v>
       </c>
       <c r="Y5" t="n">
-        <v>1272.980196451223</v>
+        <v>1724.339643150356</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>682.0221647221273</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C7" t="n">
-        <v>682.0221647221273</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D7" t="n">
-        <v>516.14417192365</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>509.954387939391</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1678.21445065098</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1678.21445065098</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>1678.21445065098</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U7" t="n">
-        <v>1678.21445065098</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V7" t="n">
-        <v>1391.25894252141</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W7" t="n">
-        <v>1119.232538107702</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X7" t="n">
-        <v>873.8407834411144</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y7" t="n">
-        <v>873.8407834411144</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1392.134372851939</v>
+        <v>489.9592645846402</v>
       </c>
       <c r="C8" t="n">
-        <v>1358.032304075766</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>1299.811941267746</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>866.0371964260412</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>438.1697668352489</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>36.77193545851274</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="K8" t="n">
-        <v>491.8246367576078</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="L8" t="n">
-        <v>491.8246367576078</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M8" t="n">
-        <v>491.8246367576078</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N8" t="n">
-        <v>491.8246367576078</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>946.8773380567029</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1401.930039355798</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925637</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925637</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1838.596772925637</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.596772925637</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.781722377074</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>1822.679662996789</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>1818.433943336846</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498055</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864478</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.396930433001</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599547</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761164</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230027</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897033</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851827</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842776</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1127.786217543887</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1127.786217543887</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1127.786217543887</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543887</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543887</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503479</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295686</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.9724387805543</v>
+        <v>1008.774500367786</v>
       </c>
       <c r="C10" t="n">
-        <v>518.9724387805543</v>
+        <v>836.2127888510105</v>
       </c>
       <c r="D10" t="n">
-        <v>518.9724387805543</v>
+        <v>670.3347960525332</v>
       </c>
       <c r="E10" t="n">
-        <v>518.9724387805543</v>
+        <v>500.5767923032705</v>
       </c>
       <c r="F10" t="n">
-        <v>342.2653847423105</v>
+        <v>323.8697382650266</v>
       </c>
       <c r="G10" t="n">
-        <v>176.6741097681382</v>
+        <v>158.2784632908543</v>
       </c>
       <c r="H10" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851274</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>123.3516206232026</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>123.3516206232026</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>541.5615023911637</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>996.6142036902587</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1438.873006847903</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1438.873006847903</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1786.379900818245</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925637</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1838.596772925637</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>1838.596772925637</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="U10" t="n">
-        <v>1560.163772178742</v>
+        <v>2232.38645698253</v>
       </c>
       <c r="V10" t="n">
-        <v>1273.208264049172</v>
+        <v>1945.43094885296</v>
       </c>
       <c r="W10" t="n">
-        <v>1001.181859635464</v>
+        <v>1673.404544439252</v>
       </c>
       <c r="X10" t="n">
-        <v>755.7901049688764</v>
+        <v>1428.012789772665</v>
       </c>
       <c r="Y10" t="n">
-        <v>528.3704342829847</v>
+        <v>1200.593119086773</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2522.958394689264</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C11" t="n">
-        <v>2084.815921872687</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.906137047132</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
-        <v>787.263962614635</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111518</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I11" t="n">
         <v>96.73597668111518</v>
@@ -5045,19 +5045,19 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>1366.340956092211</v>
+        <v>2859.155227899</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940405</v>
+        <v>2859.155227899</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510712</v>
+        <v>3839.334894469307</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344108</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="Q11" t="n">
         <v>4667.644769302702</v>
@@ -5075,16 +5075,16 @@
         <v>4273.857430429651</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.542006884174</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W11" t="n">
-        <v>3776.686552295208</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.544088874518</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.257965174172</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="12">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580463</v>
+        <v>784.8119928040991</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412712</v>
+        <v>612.250281287324</v>
       </c>
       <c r="D13" t="n">
-        <v>608.792309442794</v>
+        <v>446.3722884888467</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935312</v>
+        <v>276.614284739584</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552875</v>
+        <v>276.614284739584</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111518</v>
+        <v>276.614284739584</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111518</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I13" t="n">
         <v>96.73597668111518</v>
@@ -5221,28 +5221,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S13" t="n">
-        <v>2695.15641754123</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.276971119686</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.843970372791</v>
+        <v>2008.423949418844</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.888462243221</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.862057829513</v>
+        <v>1449.442036875566</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.470303162925</v>
+        <v>1204.050282208978</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477033</v>
+        <v>976.6306115230864</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062124</v>
+        <v>2472.724095295528</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.232711245548</v>
+        <v>2034.581622478951</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419992</v>
+        <v>1598.671837653395</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F14" t="n">
-        <v>787.680751987495</v>
+        <v>787.2639626146351</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2829206107589</v>
+        <v>385.866131237899</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I14" t="n">
         <v>96.73597668111518</v>
@@ -5282,22 +5282,22 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>2312.656441940405</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>2312.656441940405</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="N14" t="n">
-        <v>2312.656441940405</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510712</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344108</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302702</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R14" t="n">
         <v>4836.798834055759</v>
@@ -5306,22 +5306,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4544.575746323208</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="U14" t="n">
-        <v>4544.575746323208</v>
+        <v>4493.924657556612</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.958796257035</v>
+        <v>4131.307707490438</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.103341668068</v>
+        <v>3726.452252901471</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.960878247379</v>
+        <v>3307.309789480782</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.674754547032</v>
+        <v>2899.023665780435</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5358,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O15" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1063.244993550994</v>
+        <v>947.2320137580465</v>
       </c>
       <c r="C16" t="n">
-        <v>890.683282034219</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D16" t="n">
-        <v>724.8052892357417</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E16" t="n">
-        <v>667.5964292284815</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F16" t="n">
-        <v>490.8893751902377</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G16" t="n">
-        <v>325.2981002160653</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H16" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I16" t="n">
         <v>96.73597668111518</v>
@@ -5458,7 +5458,7 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.977765289286</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S16" t="n">
         <v>2532.736396587283</v>
@@ -5467,19 +5467,19 @@
         <v>2286.856950165738</v>
       </c>
       <c r="U16" t="n">
-        <v>2286.856950165738</v>
+        <v>2008.423949418844</v>
       </c>
       <c r="V16" t="n">
-        <v>1999.901442036169</v>
+        <v>1883.888462243222</v>
       </c>
       <c r="W16" t="n">
-        <v>1727.87503762246</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X16" t="n">
-        <v>1482.483282955873</v>
+        <v>1366.470303162926</v>
       </c>
       <c r="Y16" t="n">
-        <v>1255.063612269981</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2252.656868168567</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C17" t="n">
-        <v>2085.232711245548</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D17" t="n">
-        <v>1649.322926419992</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F17" t="n">
-        <v>787.6807519874951</v>
+        <v>787.2639626146351</v>
       </c>
       <c r="G17" t="n">
-        <v>386.282920610759</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H17" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I17" t="n">
         <v>96.73597668111518</v>
@@ -5519,46 +5519,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L17" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M17" t="n">
-        <v>1366.340956092211</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N17" t="n">
-        <v>2312.656441940405</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O17" t="n">
-        <v>3292.836108510712</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P17" t="n">
-        <v>4121.145983344108</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302702</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R17" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S17" t="n">
-        <v>4753.146960239596</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T17" t="n">
-        <v>4533.079733112634</v>
+        <v>4616.731606928797</v>
       </c>
       <c r="U17" t="n">
-        <v>4273.857430429651</v>
+        <v>4544.158956950349</v>
       </c>
       <c r="V17" t="n">
-        <v>3911.240480363477</v>
+        <v>4181.542006884175</v>
       </c>
       <c r="W17" t="n">
-        <v>3506.385025774511</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X17" t="n">
-        <v>3087.242562353822</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y17" t="n">
-        <v>2678.956438653475</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="18">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1175.794137292997</v>
+        <v>947.2320137580464</v>
       </c>
       <c r="C19" t="n">
-        <v>1003.232425776221</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D19" t="n">
-        <v>837.3544329777442</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E19" t="n">
-        <v>667.5964292284814</v>
+        <v>439.0343056935314</v>
       </c>
       <c r="F19" t="n">
-        <v>490.8893751902376</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G19" t="n">
-        <v>325.2981002160653</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H19" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I19" t="n">
         <v>96.73597668111518</v>
@@ -5695,28 +5695,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2532.736396587283</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T19" t="n">
-        <v>2286.856950165738</v>
+        <v>2449.276971119685</v>
       </c>
       <c r="U19" t="n">
-        <v>2008.423949418843</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V19" t="n">
-        <v>1885.03091509228</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.004510678571</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X19" t="n">
-        <v>1367.612756011984</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y19" t="n">
-        <v>1367.612756011984</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2523.375184062125</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C20" t="n">
-        <v>2085.232711245548</v>
+        <v>1814.51439535199</v>
       </c>
       <c r="D20" t="n">
-        <v>1649.322926419992</v>
+        <v>1378.604610526434</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.548181578287</v>
+        <v>944.8298656847296</v>
       </c>
       <c r="F20" t="n">
-        <v>787.6807519874951</v>
+        <v>516.9624360939374</v>
       </c>
       <c r="G20" t="n">
-        <v>386.282920610759</v>
+        <v>115.5646047172013</v>
       </c>
       <c r="H20" t="n">
-        <v>97.15276605397526</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J20" t="n">
         <v>531.9906641340331</v>
@@ -5756,46 +5756,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L20" t="n">
-        <v>2312.656441940404</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>2312.656441940404</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N20" t="n">
-        <v>2312.656441940404</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O20" t="n">
-        <v>3292.83610851071</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P20" t="n">
-        <v>4121.145983344106</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.644769302701</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R20" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S20" t="n">
-        <v>4753.146960239595</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T20" t="n">
-        <v>4533.079733112633</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U20" t="n">
-        <v>4273.85743042965</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V20" t="n">
-        <v>3911.240480363476</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W20" t="n">
         <v>3506.38502577451</v>
       </c>
       <c r="X20" t="n">
-        <v>3087.242562353822</v>
+        <v>3087.242562353821</v>
       </c>
       <c r="Y20" t="n">
-        <v>2678.956438653475</v>
+        <v>2678.956438653474</v>
       </c>
     </row>
     <row r="21">
@@ -5823,7 +5823,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I21" t="n">
         <v>122.7996498415728</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1175.794137292997</v>
+        <v>1006.036133543734</v>
       </c>
       <c r="C22" t="n">
-        <v>1003.232425776222</v>
+        <v>833.4744220269586</v>
       </c>
       <c r="D22" t="n">
-        <v>837.3544329777443</v>
+        <v>667.5964292284814</v>
       </c>
       <c r="E22" t="n">
-        <v>667.5964292284815</v>
+        <v>667.5964292284814</v>
       </c>
       <c r="F22" t="n">
-        <v>490.8893751902377</v>
+        <v>490.8893751902376</v>
       </c>
       <c r="G22" t="n">
         <v>325.2981002160653</v>
       </c>
       <c r="H22" t="n">
-        <v>185.3959259064398</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J22" t="n">
         <v>183.315661845805</v>
@@ -5914,10 +5914,10 @@
         <v>458.0741164169406</v>
       </c>
       <c r="L22" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N22" t="n">
         <v>1778.026668523459</v>
@@ -5932,28 +5932,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S22" t="n">
-        <v>2532.736396587283</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="T22" t="n">
-        <v>2286.856950165739</v>
+        <v>2508.081090905373</v>
       </c>
       <c r="U22" t="n">
-        <v>2286.856950165739</v>
+        <v>2229.648090158478</v>
       </c>
       <c r="V22" t="n">
-        <v>2112.450585778171</v>
+        <v>1942.692582028908</v>
       </c>
       <c r="W22" t="n">
-        <v>1840.424181364463</v>
+        <v>1670.6661776152</v>
       </c>
       <c r="X22" t="n">
-        <v>1595.032426697876</v>
+        <v>1425.274422948612</v>
       </c>
       <c r="Y22" t="n">
-        <v>1367.612756011984</v>
+        <v>1197.854752262721</v>
       </c>
     </row>
     <row r="23">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1068.769857140658</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>896.2081456238833</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>730.330152825406</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>560.5721490761433</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176948</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2292.381813755403</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>2005.426305625833</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W25" t="n">
-        <v>1733.399901212125</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1488.008146545538</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1260.588475859646</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1092.659051657336</v>
+        <v>790.3368563937639</v>
       </c>
       <c r="C28" t="n">
-        <v>920.0973401405612</v>
+        <v>617.7751448769889</v>
       </c>
       <c r="D28" t="n">
-        <v>754.2193473420839</v>
+        <v>451.8971520785115</v>
       </c>
       <c r="E28" t="n">
-        <v>584.4613435928212</v>
+        <v>282.1391483292488</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W28" t="n">
-        <v>1511.897341062215</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1511.897341062215</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y28" t="n">
-        <v>1284.477670376323</v>
+        <v>982.155475112751</v>
       </c>
     </row>
     <row r="29">
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1008.757289365886</v>
+        <v>949.5782250957677</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>777.0165135789927</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>611.1385207805154</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>441.3805170312526</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>264.6734629930087</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T34" t="n">
-        <v>2473.041003752035</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U34" t="n">
-        <v>2194.60800300514</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V34" t="n">
-        <v>1907.65249487557</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W34" t="n">
-        <v>1635.626090461862</v>
+        <v>1614.208269167234</v>
       </c>
       <c r="X34" t="n">
-        <v>1390.234335795275</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y34" t="n">
-        <v>1162.814665109383</v>
+        <v>1141.396843814755</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E35" t="n">
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G35" t="n">
         <v>391.8077842004234</v>
@@ -6971,16 +6971,16 @@
         <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7172,28 +7172,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2627364873769</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1632.322702740236</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>1632.322702740236</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>790.336856393764</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>617.775144876989</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>451.8971520785117</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008509</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173567</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W40" t="n">
-        <v>1748.411126173567</v>
+        <v>1454.966900465231</v>
       </c>
       <c r="X40" t="n">
-        <v>1503.019371506979</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127512</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
         <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
         <v>1221.073045167952</v>
@@ -7400,7 +7400,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7421,40 +7421,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1181.319000882661</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C43" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405614</v>
       </c>
       <c r="D43" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420841</v>
       </c>
       <c r="E43" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928213</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545776</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057297</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7597,22 +7597,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2559.679081471576</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2281.246080724681</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V43" t="n">
-        <v>1994.290572595112</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W43" t="n">
-        <v>1722.264168181403</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X43" t="n">
-        <v>1476.872413514816</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y43" t="n">
-        <v>1373.137619601648</v>
+        <v>1284.477670376324</v>
       </c>
     </row>
     <row r="44">
@@ -7634,10 +7634,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7673,25 +7673,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>920.0973401405612</v>
+        <v>1004.611946844417</v>
       </c>
       <c r="C46" t="n">
-        <v>920.0973401405612</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D46" t="n">
-        <v>754.2193473420839</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E46" t="n">
-        <v>584.4613435928212</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F46" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7828,28 +7828,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878952</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176948</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2292.381813755404</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2013.948813008509</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V46" t="n">
-        <v>1726.993304878939</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W46" t="n">
-        <v>1584.727384212028</v>
+        <v>1669.241990915884</v>
       </c>
       <c r="X46" t="n">
-        <v>1339.33562954544</v>
+        <v>1423.850236249296</v>
       </c>
       <c r="Y46" t="n">
-        <v>1111.915958859548</v>
+        <v>1196.430565563404</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>40.34758805804177</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>613.8410568773353</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773352</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,7 +8058,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>358.9284720888815</v>
+        <v>613.8410568773352</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>47.47818213854725</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,19 +8137,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>310.9272166398487</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>298.8346135826528</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,7 +8295,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,19 +8371,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>58.38468441396117</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8392,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314091</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>441.0775086564031</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314091</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662717</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8611,25 +8611,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314092</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>52.74431525999171</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,13 +8693,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>421.9740460140706</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294894</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8708,7 +8708,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8930,10 +8930,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>955.8742281294894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9167,13 +9167,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>955.8742281294894</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9404,13 +9404,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>955.8742281294876</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10820,19 +10820,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>459.59787496626</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.5985112554898</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>268.0111327346215</v>
       </c>
     </row>
     <row r="12">
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>48.1969773217166</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>49.73195639979883</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,10 +23546,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>11.38105307846863</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>111.4236523045825</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>160.7958207444075</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>268.0111327346218</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>184.783156177489</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.592177662726</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>161.9268490649759</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>268.0111327346222</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>268.011132734622</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>40.15930123557294</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>111.423652304582</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>111.4236523045825</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.592177662725</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24610,13 +24610,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>160.7958207444075</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>35.15749310933401</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627254</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>37.3836305457355</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>3.146865729423787</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627254</v>
+        <v>139.5921776627264</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>160.7958207444073</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,13 +25609,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>96.56253959275502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,13 +25837,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.0953302292548</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>122.4480280049969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,7 +26032,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>128.4628789093291</v>
+        <v>212.1323395461473</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>636105.2474665812</v>
+        <v>638049.1004969187</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>636105.2474665812</v>
+        <v>638599.5478781146</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>636467.8084229546</v>
+        <v>638599.5478781146</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>606885.2821361994</v>
+        <v>606885.2821361993</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>606885.2821361995</v>
+        <v>606885.2821361994</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>606885.2821361994</v>
+        <v>606885.2821361993</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>632496.5345410991</v>
+        <v>632496.534541099</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>632496.534541099</v>
+        <v>632496.5345410991</v>
       </c>
     </row>
     <row r="15">
@@ -26314,16 +26314,16 @@
         <v>308284.7089369848</v>
       </c>
       <c r="C2" t="n">
-        <v>308284.7089369849</v>
+        <v>308284.7089369848</v>
       </c>
       <c r="D2" t="n">
         <v>308284.7089369848</v>
       </c>
       <c r="E2" t="n">
+        <v>290676.2413337138</v>
+      </c>
+      <c r="F2" t="n">
         <v>290676.2413337139</v>
-      </c>
-      <c r="F2" t="n">
-        <v>290676.241333714</v>
       </c>
       <c r="G2" t="n">
         <v>290676.241333714</v>
@@ -26344,13 +26344,13 @@
         <v>302943.1108789775</v>
       </c>
       <c r="M2" t="n">
-        <v>302943.1108789776</v>
+        <v>302943.1108789775</v>
       </c>
       <c r="N2" t="n">
+        <v>302943.1108789777</v>
+      </c>
+      <c r="O2" t="n">
         <v>302943.1108789775</v>
-      </c>
-      <c r="O2" t="n">
-        <v>302943.1108789776</v>
       </c>
       <c r="P2" t="n">
         <v>302943.1108789776</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039032</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390635</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200262</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520274</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283958</v>
+        <v>18364.71563283952</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856135</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.0085678449</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509851</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104677</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175300.239865111</v>
+        <v>133864.3835971963</v>
       </c>
       <c r="C4" t="n">
-        <v>175300.239865111</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="D4" t="n">
-        <v>167571.7627414877</v>
+        <v>122130.8532251353</v>
       </c>
       <c r="E4" t="n">
         <v>13668.38414064833</v>
@@ -26433,7 +26433,7 @@
         <v>13668.38414064833</v>
       </c>
       <c r="H4" t="n">
-        <v>13668.38414064837</v>
+        <v>13668.38414064833</v>
       </c>
       <c r="I4" t="n">
         <v>14245.20557049264</v>
@@ -26454,7 +26454,7 @@
         <v>14245.20557049264</v>
       </c>
       <c r="O4" t="n">
-        <v>14245.20557049264</v>
+        <v>14245.20557049258</v>
       </c>
       <c r="P4" t="n">
         <v>14245.20557049264</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814198</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846968</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764752</v>
@@ -26506,7 +26506,7 @@
         <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
         <v>77718.23860579252</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-68631.61972505838</v>
+        <v>-102241.0674222566</v>
       </c>
       <c r="C6" t="n">
-        <v>73559.68093465158</v>
+        <v>94600.78677618549</v>
       </c>
       <c r="D6" t="n">
-        <v>68156.86857502483</v>
+        <v>111941.3311500918</v>
       </c>
       <c r="E6" t="n">
-        <v>-20310.77883660933</v>
+        <v>41676.88115050675</v>
       </c>
       <c r="F6" t="n">
-        <v>203488.5149154181</v>
+        <v>203411.9563606212</v>
       </c>
       <c r="G6" t="n">
-        <v>203488.5149154181</v>
+        <v>203411.9563606213</v>
       </c>
       <c r="H6" t="n">
-        <v>203488.514915418</v>
+        <v>203411.9563606212</v>
       </c>
       <c r="I6" t="n">
-        <v>192614.9510698528</v>
+        <v>192591.7267304701</v>
       </c>
       <c r="J6" t="n">
-        <v>99965.20135770217</v>
+        <v>50348.61287769618</v>
       </c>
       <c r="K6" t="n">
-        <v>210979.6667026923</v>
+        <v>197142.4337954647</v>
       </c>
       <c r="L6" t="n">
-        <v>202032.0556141825</v>
+        <v>210956.4423633096</v>
       </c>
       <c r="M6" t="n">
-        <v>24188.68009222476</v>
+        <v>75966.49775030631</v>
       </c>
       <c r="N6" t="n">
-        <v>210979.6667026924</v>
+        <v>210956.4423633099</v>
       </c>
       <c r="O6" t="n">
-        <v>210979.6667026924</v>
+        <v>210956.4423633098</v>
       </c>
       <c r="P6" t="n">
-        <v>210979.6667026924</v>
+        <v>210956.4423633098</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773353</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -26805,7 +26805,7 @@
         <v>1209.19970851394</v>
       </c>
       <c r="H4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773353</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052166</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080592</v>
+        <v>69.06079487080569</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773353</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052166</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825302</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773353</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052166</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825305</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>113.7278999628234</v>
+        <v>106.1858789520105</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27388,13 +27388,13 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27436,10 +27436,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,7 +27549,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>272.3791071520587</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>76.30164062146201</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>106.885691984759</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>372.7964946687786</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27774,13 +27774,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>2.424353446538746</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
+        <v>86.14502017843142</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
       </c>
-      <c r="D8" t="n">
-        <v>373.9125277973602</v>
-      </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>180.5964169843912</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>34.67467827192576</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -28059,7 +28059,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-1.350599632132798e-12</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>40.34758805804177</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>613.8410568773353</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773352</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,7 +34778,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>358.9284720888815</v>
+        <v>613.8410568773352</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34787,16 +34787,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>47.47818213854725</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,19 +34857,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>310.9272166398487</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>298.8346135826528</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,7 +35015,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>58.38468441396117</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314092</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314091</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>441.0775086564031</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314091</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662717</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314093</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35331,25 +35331,25 @@
         <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314092</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>446.7260637956007</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>52.74431525999171</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35413,13 +35413,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>421.9740460140706</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294894</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35428,7 +35428,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>170.862691669754</v>
@@ -35650,10 +35650,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>955.8742281294894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35887,13 +35887,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>955.8742281294894</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36124,13 +36124,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>955.8742281294876</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36142,7 +36142,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697549</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36528,7 +36528,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37239,13 +37239,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>459.59787496626</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37950,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38187,13 +38187,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
